--- a/test.xlsx
+++ b/test.xlsx
@@ -14,33 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>Ausschuss</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Scrap</t>
-  </si>
-  <si>
-    <t>[400]</t>
-  </si>
-  <si>
-    <t>[500]</t>
-  </si>
-  <si>
-    <t>[100]</t>
-  </si>
-  <si>
-    <t>[800]</t>
+    <t>Länge (mm)</t>
   </si>
 </sst>
 </file>
@@ -398,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -417,10 +411,16 @@
       <c r="E1" s="1">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>4000</v>
@@ -434,58 +434,73 @@
       <c r="E2">
         <v>700</v>
       </c>
+      <c r="F2">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="F4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="B6">
         <v>5000</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>3000</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1000</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="F6">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
